--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="103">
   <si>
     <t xml:space="preserve">Matriz de Pruebas </t>
   </si>
@@ -184,9 +184,6 @@
     <t>veronica.cardenaz</t>
   </si>
   <si>
-    <t xml:space="preserve">Agragar </t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eliminar Registro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliinación Correcta </t>
   </si>
   <si>
     <t>Divisas</t>
@@ -368,6 +362,66 @@
   </si>
   <si>
     <t xml:space="preserve">Cerrada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se agregó registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busqueda correcta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga documento e impresión. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación  Correcta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación Correcta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar </t>
+  </si>
+  <si>
+    <t> 0000082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se genero un nuevo aviso manda error al guardar. </t>
+  </si>
+  <si>
+    <t>PDRMYE-312</t>
+  </si>
+  <si>
+    <t>Evento Agregado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51 municipios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se visualiza ventana correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra Estatus correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra Solicitud correctamente </t>
+  </si>
+  <si>
+    <t>Filtra Fondos correctamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra Municipios Correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra mes Correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtra todos los registros correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columnas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pueden ocultar columnas ajustando el tamaño de la tabla. </t>
   </si>
 </sst>
 </file>
@@ -10557,121 +10611,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10849,7 +10788,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
@@ -10901,6 +10840,121 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -11191,7 +11245,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:C31"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11363,15 +11417,20 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -11390,15 +11449,20 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -11417,15 +11481,20 @@
         <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -11444,15 +11513,20 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -11471,15 +11545,20 @@
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="N11" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -11489,7 +11568,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -11498,15 +11577,20 @@
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -11516,7 +11600,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -11525,15 +11609,20 @@
         <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -11543,7 +11632,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -11552,15 +11641,20 @@
         <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -11570,7 +11664,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -11579,15 +11673,20 @@
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N15" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -11597,7 +11696,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -11606,17 +11705,34 @@
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -11624,7 +11740,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -11633,15 +11749,32 @@
         <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="J17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -11651,7 +11784,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -11660,13 +11793,13 @@
         <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="N18" s="1"/>
     </row>
@@ -11678,7 +11811,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -11687,13 +11820,13 @@
         <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -11705,7 +11838,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -11714,13 +11847,13 @@
         <v>22</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="N20" s="1"/>
     </row>
@@ -11732,7 +11865,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -11741,13 +11874,13 @@
         <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -11759,7 +11892,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -11768,13 +11901,13 @@
         <v>22</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -11786,7 +11919,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -11795,15 +11928,20 @@
         <v>22</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -11813,7 +11951,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -11822,15 +11960,20 @@
         <v>22</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -11840,7 +11983,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -11849,15 +11992,20 @@
         <v>22</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N25" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -11867,7 +12015,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -11876,15 +12024,20 @@
         <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="N26" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -11894,7 +12047,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -11903,15 +12056,20 @@
         <v>22</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -11921,7 +12079,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -11930,15 +12088,20 @@
         <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -11948,7 +12111,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -11957,15 +12120,20 @@
         <v>22</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -11975,7 +12143,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -11984,15 +12152,20 @@
         <v>22</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
@@ -12002,7 +12175,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -12011,25 +12184,30 @@
         <v>22</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -12038,25 +12216,30 @@
         <v>22</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -12065,26 +12248,30 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33"/>
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
       <c r="I33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="N33" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -12093,26 +12280,30 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34"/>
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
       <c r="I34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N34" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -12121,26 +12312,30 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35"/>
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
       <c r="I35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N35" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -12149,26 +12344,30 @@
         <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36"/>
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
       <c r="I36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N36" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -12177,26 +12376,30 @@
         <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37"/>
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
       <c r="I37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N37" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N37" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -12205,26 +12408,30 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38"/>
+        <v>23</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
       <c r="I38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N38" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N38" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -12233,26 +12440,30 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39"/>
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>100</v>
+      </c>
       <c r="I39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N39" s="1">
+        <v>45055</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -12261,14 +12472,14 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N40" s="1"/>
     </row>
@@ -12277,10 +12488,10 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -12289,14 +12500,14 @@
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41"/>
       <c r="I41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N41" s="1"/>
     </row>
@@ -12305,10 +12516,10 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
@@ -12317,14 +12528,14 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42"/>
       <c r="I42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N42" s="1"/>
     </row>
@@ -12333,10 +12544,10 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -12345,14 +12556,14 @@
         <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H43"/>
       <c r="I43" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N43" s="1"/>
     </row>
@@ -12361,10 +12572,10 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -12373,14 +12584,14 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H44"/>
       <c r="I44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N44" s="1"/>
     </row>
@@ -12389,10 +12600,10 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
@@ -12401,14 +12612,14 @@
         <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H45"/>
       <c r="I45" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -12416,10 +12627,10 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
@@ -12428,14 +12639,14 @@
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H46"/>
       <c r="I46" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -12443,10 +12654,10 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
@@ -12455,18 +12666,44 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H47"/>
       <c r="I47" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H48"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H49"/>
@@ -13405,12 +13642,12 @@
     </row>
     <row r="354" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E354" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="355" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E355" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -13423,10 +13660,16 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1" tooltip="[asignada] Mensajes de confirmación  Modulo DAMOP / Catalogo / Contacto" display="http://10.200.4.202/view.php?id=82"/>
+    <hyperlink ref="J17" r:id="rId2" tooltip="[asignada] Mensajes de confirmación  Modulo DAMOP / Catalogo / Contacto" display="http://10.200.4.202/view.php?id=82"/>
+    <hyperlink ref="M16" r:id="rId3" display="https://sfytgenl.atlassian.net/browse/PDRMYE-312"/>
+    <hyperlink ref="M17" r:id="rId4" display="https://sfytgenl.atlassian.net/browse/PDRMYE-312"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -13479,15 +13722,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12">
         <v>41</v>
@@ -13495,7 +13738,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="15">
         <v>41</v>
@@ -13503,37 +13746,37 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -13559,7 +13802,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -13570,45 +13813,45 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
         <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="CPH" sheetId="1" r:id="rId1"/>
+    <sheet name="DAMOP" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4931,7 +4931,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ADOLFO ANGEL GARCIA" refreshedDate="45041.420602314814" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="350">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="CPH"/>
+    <worksheetSource ref="A6:N1048576" sheet="DAMOP"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -10611,7 +10611,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -10789,7 +10789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10858,7 +10858,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>

--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE DAMOP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\ENTREGABLES\Matriz de Puebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github\All-documents\PDRMYE\ENTREGABLES\Matriz de Puebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="106">
   <si>
     <t xml:space="preserve">Matriz de Pruebas </t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t xml:space="preserve">Se pueden ocultar columnas ajustando el tamaño de la tabla. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuentas Bancarias </t>
+  </si>
+  <si>
+    <t>Agredar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtros </t>
   </si>
 </sst>
 </file>
@@ -11244,8 +11253,8 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12705,52 +12714,157 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="14:14" x14ac:dyDescent="0.3">
